--- a/data/option/AAPL_2021-06-15_put_revised.xlsx
+++ b/data/option/AAPL_2021-06-15_put_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>28.75</v>
       </c>
       <c r="C2" t="n">
-        <v>28.75</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F2" t="n">
         <v>68</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>62.5</v>
       </c>
       <c r="C4" t="n">
-        <v>62.5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>92.5</v>
       </c>
       <c r="C7" t="n">
-        <v>92.5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>97.5</v>
       </c>
       <c r="C9" t="n">
-        <v>97.5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F9" t="n">
         <v>263</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>102.5</v>
       </c>
       <c r="C10" t="n">
-        <v>102.5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F10" t="n">
         <v>451</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F11" t="n">
         <v>81</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F12" t="n">
         <v>821</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C13" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F13" t="n">
         <v>40</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>10.93</v>
       </c>
       <c r="E14" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -725,36 +681,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C15" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
         <v>19.65</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>19.85</v>
       </c>
       <c r="E16" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F16" t="n">
         <v>145</v>
       </c>
     </row>
@@ -763,18 +713,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C17" t="n">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>35.3</v>
       </c>
       <c r="E17" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +730,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C18" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>40.02</v>
       </c>
       <c r="E18" t="n">
-        <v>40.02</v>
-      </c>
-      <c r="F18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -803,18 +747,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -823,18 +764,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C20" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F20" t="n">
         <v>13</v>
       </c>
     </row>
@@ -843,18 +781,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C21" t="n">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -863,18 +798,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="C22" t="n">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -883,18 +815,15 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C23" t="n">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +832,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>11.68</v>
       </c>
       <c r="E24" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -923,18 +849,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>14.86</v>
       </c>
       <c r="E25" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="F25" t="n">
         <v>14</v>
       </c>
     </row>
@@ -943,18 +866,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>20.68</v>
       </c>
       <c r="E26" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="F26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -963,18 +883,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>0.01</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -983,18 +900,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>0.02</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F28" t="n">
         <v>103</v>
       </c>
     </row>
@@ -1003,18 +917,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>0.13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1023,18 +934,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>0.05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F30" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1043,18 +951,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="C31" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>0.08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F31" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1063,18 +968,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="C32" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F32" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1083,18 +985,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C33" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>0.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F33" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1103,18 +1002,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="C34" t="n">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>0.12</v>
       </c>
       <c r="E34" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F34" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1123,18 +1019,15 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C35" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="E35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,18 +1036,15 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="C36" t="n">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="E36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1163,18 +1053,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>20.07</v>
       </c>
       <c r="E37" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="F37" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1183,18 +1070,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>0.02</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1203,18 +1087,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>0.03</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,18 +1104,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>0.04</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,18 +1121,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>267</v>
+        <v>105</v>
       </c>
       <c r="C41" t="n">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>0.11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F41" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1263,18 +1138,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="C42" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>0.21</v>
       </c>
       <c r="E42" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1283,18 +1155,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="C43" t="n">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>6.05</v>
       </c>
       <c r="E43" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1303,18 +1172,15 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="C44" t="n">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>6.98</v>
       </c>
       <c r="E44" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="F44" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1323,18 +1189,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="C45" t="n">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1206,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>10.15</v>
       </c>
       <c r="E46" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F46" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1363,18 +1223,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
-        <v>31</v>
+        <v>0.01</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1383,18 +1240,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>0.13</v>
       </c>
       <c r="E48" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F48" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1403,18 +1257,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>31</v>
+        <v>0.05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1423,18 +1274,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="C50" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>0.04</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F50" t="n">
         <v>96</v>
       </c>
     </row>
@@ -1443,18 +1291,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="C51" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>0.05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F51" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1463,18 +1308,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="C52" t="n">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>31</v>
+        <v>24.66</v>
       </c>
       <c r="E52" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="F52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1483,36 +1325,30 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="C53" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>38</v>
-      </c>
-      <c r="E53" t="n">
         <v>0.02</v>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="C54" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>38</v>
+        <v>0.05</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1521,18 +1357,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="C55" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D55" t="n">
-        <v>38</v>
+        <v>0.08</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F55" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1541,18 +1374,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C56" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>38</v>
+        <v>0.12</v>
       </c>
       <c r="E56" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1561,18 +1391,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>0.15</v>
       </c>
       <c r="E57" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F57" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1581,18 +1408,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="C58" t="n">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>38</v>
+        <v>0.2</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1601,18 +1425,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="C59" t="n">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>38</v>
+        <v>0.34</v>
       </c>
       <c r="E59" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1621,18 +1442,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>351</v>
+        <v>113</v>
       </c>
       <c r="C60" t="n">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>38</v>
+        <v>0.37</v>
       </c>
       <c r="E60" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1641,18 +1459,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="C61" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
-        <v>38</v>
+        <v>7.15</v>
       </c>
       <c r="E61" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1661,18 +1476,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>375</v>
+        <v>137</v>
       </c>
       <c r="C62" t="n">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>8.1</v>
       </c>
       <c r="E62" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F62" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1681,72 +1493,60 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="C63" t="n">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
-      </c>
-      <c r="E63" t="n">
         <v>12.11</v>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="C64" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
-      </c>
-      <c r="E64" t="n">
         <v>13.23</v>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>378</v>
+        <v>141</v>
       </c>
       <c r="C65" t="n">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>38</v>
-      </c>
-      <c r="E65" t="n">
         <v>14.96</v>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="C66" t="n">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>38</v>
+        <v>15.27</v>
       </c>
       <c r="E66" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="F66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1755,18 +1555,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>405</v>
+        <v>140</v>
       </c>
       <c r="C67" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>45</v>
+        <v>11.35</v>
       </c>
       <c r="E67" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F67" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1775,36 +1572,30 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>406</v>
+        <v>150</v>
       </c>
       <c r="C68" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
-      </c>
-      <c r="E68" t="n">
         <v>22.8</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>407</v>
+        <v>60</v>
       </c>
       <c r="C69" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D69" t="n">
-        <v>66</v>
+        <v>0.04</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F69" t="n">
         <v>111</v>
       </c>
     </row>
@@ -1813,18 +1604,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="C70" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D70" t="n">
-        <v>66</v>
+        <v>0.05</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F70" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1833,18 +1621,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>409</v>
+        <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D71" t="n">
-        <v>66</v>
+        <v>0.08</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F71" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1853,18 +1638,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="C72" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D72" t="n">
-        <v>66</v>
+        <v>0.1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,18 +1655,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D73" t="n">
-        <v>66</v>
+        <v>0.12</v>
       </c>
       <c r="E73" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F73" t="n">
         <v>376</v>
       </c>
     </row>
@@ -1893,18 +1672,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>412</v>
+        <v>85</v>
       </c>
       <c r="C74" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D74" t="n">
-        <v>66</v>
+        <v>0.16</v>
       </c>
       <c r="E74" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1913,18 +1689,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="C75" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D75" t="n">
-        <v>66</v>
+        <v>0.3</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F75" t="n">
         <v>204</v>
       </c>
     </row>
@@ -1933,18 +1706,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>423</v>
+        <v>140</v>
       </c>
       <c r="C76" t="n">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D76" t="n">
-        <v>66</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +1723,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="C77" t="n">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="D77" t="n">
-        <v>66</v>
+        <v>20.94</v>
       </c>
       <c r="E77" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="F77" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1973,18 +1740,15 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>426</v>
+        <v>155</v>
       </c>
       <c r="C78" t="n">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D78" t="n">
-        <v>66</v>
+        <v>26.02</v>
       </c>
       <c r="E78" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="F78" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1993,18 +1757,15 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>432</v>
+        <v>185</v>
       </c>
       <c r="C79" t="n">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="D79" t="n">
-        <v>66</v>
+        <v>55.36</v>
       </c>
       <c r="E79" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="F79" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2013,18 +1774,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>443</v>
+        <v>36.25</v>
       </c>
       <c r="C80" t="n">
-        <v>36.25</v>
+        <v>94</v>
       </c>
       <c r="D80" t="n">
-        <v>94</v>
+        <v>0.01</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F80" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2033,18 +1791,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>447</v>
+        <v>41.25</v>
       </c>
       <c r="C81" t="n">
-        <v>41.25</v>
+        <v>94</v>
       </c>
       <c r="D81" t="n">
-        <v>94</v>
+        <v>0.02</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F81" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2053,18 +1808,15 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D82" t="n">
-        <v>94</v>
+        <v>0.05</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F82" t="n">
         <v>204</v>
       </c>
     </row>
@@ -2073,18 +1825,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="C83" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D83" t="n">
-        <v>94</v>
+        <v>0.1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F83" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2093,18 +1842,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>464</v>
+        <v>75</v>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D84" t="n">
-        <v>94</v>
+        <v>0.18</v>
       </c>
       <c r="E84" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +1859,15 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="C85" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D85" t="n">
-        <v>94</v>
+        <v>0.23</v>
       </c>
       <c r="E85" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2133,18 +1876,15 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>468</v>
+        <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D86" t="n">
-        <v>94</v>
+        <v>0.28</v>
       </c>
       <c r="E86" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2153,18 +1893,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>469</v>
+        <v>87.5</v>
       </c>
       <c r="C87" t="n">
-        <v>87.5</v>
+        <v>94</v>
       </c>
       <c r="D87" t="n">
-        <v>94</v>
+        <v>0.31</v>
       </c>
       <c r="E87" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2173,18 +1910,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>475</v>
+        <v>102.5</v>
       </c>
       <c r="C88" t="n">
-        <v>102.5</v>
+        <v>94</v>
       </c>
       <c r="D88" t="n">
-        <v>94</v>
+        <v>0.72</v>
       </c>
       <c r="E88" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F88" t="n">
         <v>157</v>
       </c>
     </row>
@@ -2193,18 +1927,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>479</v>
+        <v>112.5</v>
       </c>
       <c r="C89" t="n">
-        <v>112.5</v>
+        <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>94</v>
+        <v>1.57</v>
       </c>
       <c r="E89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F89" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2213,18 +1944,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>487</v>
+        <v>140</v>
       </c>
       <c r="C90" t="n">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D90" t="n">
-        <v>94</v>
+        <v>12.98</v>
       </c>
       <c r="E90" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="F90" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2233,18 +1961,15 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>488</v>
+        <v>145</v>
       </c>
       <c r="C91" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E91" t="n">
-        <v>17</v>
-      </c>
-      <c r="F91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +1978,15 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>491</v>
+        <v>160</v>
       </c>
       <c r="C92" t="n">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D92" t="n">
-        <v>94</v>
+        <v>30.84</v>
       </c>
       <c r="E92" t="n">
-        <v>30.84</v>
-      </c>
-      <c r="F92" t="n">
         <v>58</v>
       </c>
     </row>
@@ -2273,18 +1995,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="C93" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>55.5</v>
       </c>
       <c r="E93" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F93" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2293,18 +2012,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>497</v>
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D94" t="n">
-        <v>94</v>
+        <v>61.1</v>
       </c>
       <c r="E94" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="F94" t="n">
         <v>154</v>
       </c>
     </row>
@@ -2313,18 +2029,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="C95" t="n">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>71.55</v>
       </c>
       <c r="E95" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="F95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2333,18 +2046,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="C96" t="n">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>82.5</v>
       </c>
       <c r="E96" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2353,18 +2063,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="C97" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D97" t="n">
-        <v>122</v>
+        <v>0.3</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F97" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2373,18 +2080,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>548</v>
+        <v>85</v>
       </c>
       <c r="C98" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D98" t="n">
-        <v>122</v>
+        <v>0.38</v>
       </c>
       <c r="E98" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F98" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2393,18 +2097,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>549</v>
+        <v>90</v>
       </c>
       <c r="C99" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D99" t="n">
-        <v>122</v>
+        <v>0.48</v>
       </c>
       <c r="E99" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F99" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2413,18 +2114,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="C100" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D100" t="n">
-        <v>122</v>
+        <v>0.63</v>
       </c>
       <c r="E100" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F100" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2433,18 +2131,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>552</v>
+        <v>105</v>
       </c>
       <c r="C101" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D101" t="n">
-        <v>122</v>
+        <v>1.19</v>
       </c>
       <c r="E101" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,18 +2148,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>559</v>
+        <v>140</v>
       </c>
       <c r="C102" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D102" t="n">
-        <v>122</v>
+        <v>13.69</v>
       </c>
       <c r="E102" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F102" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2473,18 +2165,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>560</v>
+        <v>145</v>
       </c>
       <c r="C103" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D103" t="n">
-        <v>122</v>
+        <v>17.24</v>
       </c>
       <c r="E103" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="F103" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2493,18 +2182,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>564</v>
+        <v>165</v>
       </c>
       <c r="C104" t="n">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="D104" t="n">
-        <v>122</v>
+        <v>35.9</v>
       </c>
       <c r="E104" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F104" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2513,18 +2199,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>565</v>
+        <v>170</v>
       </c>
       <c r="C105" t="n">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D105" t="n">
-        <v>122</v>
+        <v>40.54</v>
       </c>
       <c r="E105" t="n">
-        <v>40.54</v>
-      </c>
-      <c r="F105" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2533,18 +2216,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>579</v>
+        <v>65</v>
       </c>
       <c r="C106" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="D106" t="n">
-        <v>157</v>
+        <v>0.23</v>
       </c>
       <c r="E106" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2553,18 +2233,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="C107" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D107" t="n">
-        <v>157</v>
+        <v>0.5</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F107" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2573,18 +2250,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>583</v>
+        <v>85</v>
       </c>
       <c r="C108" t="n">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="D108" t="n">
-        <v>157</v>
+        <v>0.6</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F108" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2593,18 +2267,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>584</v>
+        <v>90</v>
       </c>
       <c r="C109" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D109" t="n">
-        <v>157</v>
+        <v>0.75</v>
       </c>
       <c r="E109" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2613,18 +2284,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>593</v>
+        <v>135</v>
       </c>
       <c r="C110" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D110" t="n">
-        <v>157</v>
+        <v>11.75</v>
       </c>
       <c r="E110" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F110" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2633,18 +2301,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>594</v>
+        <v>140</v>
       </c>
       <c r="C111" t="n">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D111" t="n">
-        <v>157</v>
+        <v>15.05</v>
       </c>
       <c r="E111" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F111" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2653,18 +2318,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>596</v>
+        <v>150</v>
       </c>
       <c r="C112" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D112" t="n">
-        <v>157</v>
+        <v>22.54</v>
       </c>
       <c r="E112" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="F112" t="n">
         <v>104</v>
       </c>
     </row>
@@ -2673,18 +2335,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>604</v>
+        <v>65</v>
       </c>
       <c r="C113" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D113" t="n">
-        <v>185</v>
+        <v>0.29</v>
       </c>
       <c r="E113" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F113" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2693,18 +2352,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>605</v>
+        <v>70</v>
       </c>
       <c r="C114" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D114" t="n">
-        <v>185</v>
+        <v>0.4</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2713,18 +2369,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>609</v>
+        <v>90</v>
       </c>
       <c r="C115" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="D115" t="n">
-        <v>185</v>
+        <v>0.95</v>
       </c>
       <c r="E115" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,18 +2386,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>614</v>
+        <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="D116" t="n">
-        <v>185</v>
+        <v>4.1</v>
       </c>
       <c r="E116" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F116" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2753,18 +2403,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>621</v>
+        <v>150</v>
       </c>
       <c r="C117" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D117" t="n">
-        <v>185</v>
+        <v>23.5</v>
       </c>
       <c r="E117" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F117" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2773,18 +2420,15 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>622</v>
+        <v>160</v>
       </c>
       <c r="C118" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D118" t="n">
-        <v>185</v>
+        <v>31.9</v>
       </c>
       <c r="E118" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2437,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>623</v>
+        <v>165</v>
       </c>
       <c r="C119" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D119" t="n">
-        <v>185</v>
+        <v>37.4</v>
       </c>
       <c r="E119" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F119" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2813,36 +2454,30 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>624</v>
+        <v>170</v>
       </c>
       <c r="C120" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D120" t="n">
-        <v>185</v>
-      </c>
-      <c r="E120" t="n">
         <v>43.79</v>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>627</v>
+        <v>25</v>
       </c>
       <c r="C121" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D121" t="n">
-        <v>220</v>
+        <v>0.02</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F121" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2851,18 +2486,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>628</v>
+        <v>27.5</v>
       </c>
       <c r="C122" t="n">
-        <v>27.5</v>
+        <v>220</v>
       </c>
       <c r="D122" t="n">
-        <v>220</v>
+        <v>0.03</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F122" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2871,18 +2503,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>630</v>
+        <v>30</v>
       </c>
       <c r="C123" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="D123" t="n">
-        <v>220</v>
+        <v>0.05</v>
       </c>
       <c r="E123" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F123" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2891,18 +2520,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>631</v>
+        <v>31.25</v>
       </c>
       <c r="C124" t="n">
-        <v>31.25</v>
+        <v>220</v>
       </c>
       <c r="D124" t="n">
-        <v>220</v>
+        <v>0.04</v>
       </c>
       <c r="E124" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F124" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2911,18 +2537,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>633</v>
+        <v>33.75</v>
       </c>
       <c r="C125" t="n">
-        <v>33.75</v>
+        <v>220</v>
       </c>
       <c r="D125" t="n">
-        <v>220</v>
+        <v>0.05</v>
       </c>
       <c r="E125" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2931,18 +2554,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>636</v>
+        <v>37.5</v>
       </c>
       <c r="C126" t="n">
-        <v>37.5</v>
+        <v>220</v>
       </c>
       <c r="D126" t="n">
-        <v>220</v>
+        <v>0.09</v>
       </c>
       <c r="E126" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +2571,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>637</v>
+        <v>38.75</v>
       </c>
       <c r="C127" t="n">
-        <v>38.75</v>
+        <v>220</v>
       </c>
       <c r="D127" t="n">
-        <v>220</v>
+        <v>0.08</v>
       </c>
       <c r="E127" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2971,18 +2588,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>638</v>
+        <v>40</v>
       </c>
       <c r="C128" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D128" t="n">
-        <v>220</v>
+        <v>0.1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2991,18 +2605,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>642</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="D129" t="n">
-        <v>220</v>
+        <v>0.15</v>
       </c>
       <c r="E129" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F129" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3011,18 +2622,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>645</v>
+        <v>48.75</v>
       </c>
       <c r="C130" t="n">
-        <v>48.75</v>
+        <v>220</v>
       </c>
       <c r="D130" t="n">
-        <v>220</v>
+        <v>0.18</v>
       </c>
       <c r="E130" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3031,18 +2639,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>646</v>
+        <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D131" t="n">
-        <v>220</v>
+        <v>0.2</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F131" t="n">
         <v>101</v>
       </c>
     </row>
@@ -3051,18 +2656,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>647</v>
+        <v>51.25</v>
       </c>
       <c r="C132" t="n">
-        <v>51.25</v>
+        <v>220</v>
       </c>
       <c r="D132" t="n">
-        <v>220</v>
+        <v>0.19</v>
       </c>
       <c r="E132" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3071,18 +2673,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>648</v>
+        <v>52.5</v>
       </c>
       <c r="C133" t="n">
-        <v>52.5</v>
+        <v>220</v>
       </c>
       <c r="D133" t="n">
-        <v>220</v>
+        <v>0.22</v>
       </c>
       <c r="E133" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +2690,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>650</v>
+        <v>55</v>
       </c>
       <c r="C134" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="D134" t="n">
-        <v>220</v>
+        <v>0.24</v>
       </c>
       <c r="E134" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F134" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3111,18 +2707,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>653</v>
+        <v>58.75</v>
       </c>
       <c r="C135" t="n">
-        <v>58.75</v>
+        <v>220</v>
       </c>
       <c r="D135" t="n">
-        <v>220</v>
+        <v>0.3</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3131,18 +2724,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>659</v>
+        <v>66.25</v>
       </c>
       <c r="C136" t="n">
-        <v>66.25</v>
+        <v>220</v>
       </c>
       <c r="D136" t="n">
-        <v>220</v>
+        <v>0.4</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,18 +2741,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="C137" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>220</v>
+        <v>0.75</v>
       </c>
       <c r="E137" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F137" t="n">
         <v>78</v>
       </c>
     </row>
@@ -3171,18 +2758,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>667</v>
+        <v>85</v>
       </c>
       <c r="C138" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D138" t="n">
-        <v>220</v>
+        <v>0.93</v>
       </c>
       <c r="E138" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F138" t="n">
         <v>82</v>
       </c>
     </row>
@@ -3191,18 +2775,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>668</v>
+        <v>87.5</v>
       </c>
       <c r="C139" t="n">
-        <v>87.5</v>
+        <v>220</v>
       </c>
       <c r="D139" t="n">
-        <v>220</v>
+        <v>1.06</v>
       </c>
       <c r="E139" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F139" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3211,18 +2792,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>671</v>
+        <v>95</v>
       </c>
       <c r="C140" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="D140" t="n">
-        <v>220</v>
+        <v>1.58</v>
       </c>
       <c r="E140" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F140" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3231,18 +2809,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>677</v>
+        <v>106.25</v>
       </c>
       <c r="C141" t="n">
-        <v>106.25</v>
+        <v>220</v>
       </c>
       <c r="D141" t="n">
-        <v>220</v>
+        <v>2.9</v>
       </c>
       <c r="E141" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,18 +2826,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>678</v>
+        <v>107.5</v>
       </c>
       <c r="C142" t="n">
-        <v>107.5</v>
+        <v>220</v>
       </c>
       <c r="D142" t="n">
-        <v>220</v>
+        <v>3.15</v>
       </c>
       <c r="E142" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F142" t="n">
         <v>307</v>
       </c>
     </row>
@@ -3271,18 +2843,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>682</v>
+        <v>112.5</v>
       </c>
       <c r="C143" t="n">
-        <v>112.5</v>
+        <v>220</v>
       </c>
       <c r="D143" t="n">
-        <v>220</v>
+        <v>4.15</v>
       </c>
       <c r="E143" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F143" t="n">
         <v>177</v>
       </c>
     </row>
@@ -3291,18 +2860,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>685</v>
+        <v>116.25</v>
       </c>
       <c r="C144" t="n">
-        <v>116.25</v>
+        <v>220</v>
       </c>
       <c r="D144" t="n">
-        <v>220</v>
+        <v>5.3</v>
       </c>
       <c r="E144" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F144" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3311,18 +2877,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>686</v>
+        <v>117.5</v>
       </c>
       <c r="C145" t="n">
-        <v>117.5</v>
+        <v>220</v>
       </c>
       <c r="D145" t="n">
-        <v>220</v>
+        <v>5.7</v>
       </c>
       <c r="E145" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F145" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3331,18 +2894,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>687</v>
+        <v>118.75</v>
       </c>
       <c r="C146" t="n">
-        <v>118.75</v>
+        <v>220</v>
       </c>
       <c r="D146" t="n">
-        <v>220</v>
+        <v>5.93</v>
       </c>
       <c r="E146" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F146" t="n">
         <v>104</v>
       </c>
     </row>
@@ -3351,18 +2911,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>692</v>
+        <v>126.25</v>
       </c>
       <c r="C147" t="n">
-        <v>126.25</v>
+        <v>220</v>
       </c>
       <c r="D147" t="n">
-        <v>220</v>
+        <v>8.85</v>
       </c>
       <c r="E147" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F147" t="n">
         <v>128</v>
       </c>
     </row>
@@ -3371,18 +2928,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>717</v>
+        <v>240</v>
       </c>
       <c r="C148" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D148" t="n">
-        <v>220</v>
+        <v>111.4</v>
       </c>
       <c r="E148" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="F148" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3391,18 +2945,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>768</v>
+        <v>28.75</v>
       </c>
       <c r="C149" t="n">
-        <v>28.75</v>
+        <v>367</v>
       </c>
       <c r="D149" t="n">
-        <v>367</v>
+        <v>0.1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F149" t="n">
         <v>33</v>
       </c>
     </row>
@@ -3411,18 +2962,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>769</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>367</v>
       </c>
       <c r="D150" t="n">
-        <v>367</v>
+        <v>0.12</v>
       </c>
       <c r="E150" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F150" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3431,18 +2979,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>771</v>
+        <v>32.5</v>
       </c>
       <c r="C151" t="n">
-        <v>32.5</v>
+        <v>367</v>
       </c>
       <c r="D151" t="n">
-        <v>367</v>
+        <v>0.13</v>
       </c>
       <c r="E151" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F151" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3451,18 +2996,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>773</v>
+        <v>35</v>
       </c>
       <c r="C152" t="n">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="D152" t="n">
-        <v>367</v>
+        <v>0.16</v>
       </c>
       <c r="E152" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3471,18 +3013,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>774</v>
+        <v>36.25</v>
       </c>
       <c r="C153" t="n">
-        <v>36.25</v>
+        <v>367</v>
       </c>
       <c r="D153" t="n">
-        <v>367</v>
+        <v>0.17</v>
       </c>
       <c r="E153" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3491,18 +3030,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>775</v>
+        <v>37.5</v>
       </c>
       <c r="C154" t="n">
-        <v>37.5</v>
+        <v>367</v>
       </c>
       <c r="D154" t="n">
-        <v>367</v>
+        <v>0.19</v>
       </c>
       <c r="E154" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3047,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>777</v>
+        <v>40</v>
       </c>
       <c r="C155" t="n">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="D155" t="n">
-        <v>367</v>
+        <v>0.25</v>
       </c>
       <c r="E155" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F155" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3531,18 +3064,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>779</v>
+        <v>42.5</v>
       </c>
       <c r="C156" t="n">
-        <v>42.5</v>
+        <v>367</v>
       </c>
       <c r="D156" t="n">
-        <v>367</v>
+        <v>0.26</v>
       </c>
       <c r="E156" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3551,18 +3081,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>781</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="D157" t="n">
-        <v>367</v>
+        <v>0.3</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F157" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3571,18 +3098,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>784</v>
+        <v>48.75</v>
       </c>
       <c r="C158" t="n">
-        <v>48.75</v>
+        <v>367</v>
       </c>
       <c r="D158" t="n">
-        <v>367</v>
+        <v>0.37</v>
       </c>
       <c r="E158" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F158" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3591,18 +3115,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>786</v>
+        <v>52.5</v>
       </c>
       <c r="C159" t="n">
-        <v>52.5</v>
+        <v>367</v>
       </c>
       <c r="D159" t="n">
-        <v>367</v>
+        <v>0.44</v>
       </c>
       <c r="E159" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3611,18 +3132,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>788</v>
+        <v>57.5</v>
       </c>
       <c r="C160" t="n">
-        <v>57.5</v>
+        <v>367</v>
       </c>
       <c r="D160" t="n">
-        <v>367</v>
+        <v>0.54</v>
       </c>
       <c r="E160" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F160" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3631,18 +3149,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>792</v>
+        <v>65</v>
       </c>
       <c r="C161" t="n">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="D161" t="n">
-        <v>367</v>
+        <v>0.77</v>
       </c>
       <c r="E161" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F161" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3651,18 +3166,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>794</v>
+        <v>70</v>
       </c>
       <c r="C162" t="n">
-        <v>70</v>
+        <v>367</v>
       </c>
       <c r="D162" t="n">
-        <v>367</v>
+        <v>0.98</v>
       </c>
       <c r="E162" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F162" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3671,18 +3183,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>798</v>
+        <v>80</v>
       </c>
       <c r="C163" t="n">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="D163" t="n">
-        <v>367</v>
+        <v>1.5</v>
       </c>
       <c r="E163" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F163" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3691,18 +3200,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>800</v>
+        <v>85</v>
       </c>
       <c r="C164" t="n">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="D164" t="n">
-        <v>367</v>
+        <v>1.89</v>
       </c>
       <c r="E164" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,18 +3217,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>804</v>
+        <v>95</v>
       </c>
       <c r="C165" t="n">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="D165" t="n">
-        <v>367</v>
+        <v>3.05</v>
       </c>
       <c r="E165" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F165" t="n">
         <v>33</v>
       </c>
     </row>
@@ -3731,18 +3234,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>807</v>
+        <v>102.5</v>
       </c>
       <c r="C166" t="n">
-        <v>102.5</v>
+        <v>367</v>
       </c>
       <c r="D166" t="n">
-        <v>367</v>
+        <v>4.45</v>
       </c>
       <c r="E166" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F166" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3751,18 +3251,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>809</v>
+        <v>105</v>
       </c>
       <c r="C167" t="n">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="D167" t="n">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
-      </c>
-      <c r="F167" t="n">
         <v>187</v>
       </c>
     </row>
@@ -3771,18 +3268,15 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>810</v>
+        <v>106.25</v>
       </c>
       <c r="C168" t="n">
-        <v>106.25</v>
+        <v>367</v>
       </c>
       <c r="D168" t="n">
-        <v>367</v>
+        <v>5.35</v>
       </c>
       <c r="E168" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +3285,15 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>812</v>
+        <v>108.75</v>
       </c>
       <c r="C169" t="n">
-        <v>108.75</v>
+        <v>367</v>
       </c>
       <c r="D169" t="n">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
-      </c>
-      <c r="F169" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3811,18 +3302,15 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>819</v>
+        <v>117.5</v>
       </c>
       <c r="C170" t="n">
-        <v>117.5</v>
+        <v>367</v>
       </c>
       <c r="D170" t="n">
-        <v>367</v>
+        <v>8.85</v>
       </c>
       <c r="E170" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F170" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3831,18 +3319,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>823</v>
+        <v>122.5</v>
       </c>
       <c r="C171" t="n">
-        <v>122.5</v>
+        <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>367</v>
+        <v>10.83</v>
       </c>
       <c r="E171" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F171" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3851,18 +3336,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>826</v>
+        <v>135</v>
       </c>
       <c r="C172" t="n">
-        <v>135</v>
+        <v>367</v>
       </c>
       <c r="D172" t="n">
-        <v>367</v>
+        <v>17.5</v>
       </c>
       <c r="E172" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F172" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3871,18 +3353,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>828</v>
+        <v>145</v>
       </c>
       <c r="C173" t="n">
-        <v>145</v>
+        <v>367</v>
       </c>
       <c r="D173" t="n">
-        <v>367</v>
+        <v>23.75</v>
       </c>
       <c r="E173" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="F173" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3891,18 +3370,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>830</v>
+        <v>155</v>
       </c>
       <c r="C174" t="n">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="D174" t="n">
-        <v>367</v>
+        <v>31.37</v>
       </c>
       <c r="E174" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="F174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3911,18 +3387,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>887</v>
+        <v>40</v>
       </c>
       <c r="C175" t="n">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="D175" t="n">
-        <v>458</v>
+        <v>0.28</v>
       </c>
       <c r="E175" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3931,18 +3404,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>889</v>
+        <v>42.5</v>
       </c>
       <c r="C176" t="n">
-        <v>42.5</v>
+        <v>458</v>
       </c>
       <c r="D176" t="n">
-        <v>458</v>
+        <v>0.34</v>
       </c>
       <c r="E176" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3951,18 +3421,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>891</v>
+        <v>45</v>
       </c>
       <c r="C177" t="n">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="D177" t="n">
-        <v>458</v>
+        <v>0.38</v>
       </c>
       <c r="E177" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F177" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3971,18 +3438,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>894</v>
+        <v>48.75</v>
       </c>
       <c r="C178" t="n">
-        <v>48.75</v>
+        <v>458</v>
       </c>
       <c r="D178" t="n">
-        <v>458</v>
+        <v>0.47</v>
       </c>
       <c r="E178" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F178" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3991,18 +3455,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>895</v>
+        <v>50</v>
       </c>
       <c r="C179" t="n">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="D179" t="n">
-        <v>458</v>
+        <v>0.48</v>
       </c>
       <c r="E179" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F179" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4011,18 +3472,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>897</v>
+        <v>55</v>
       </c>
       <c r="C180" t="n">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="D180" t="n">
-        <v>458</v>
+        <v>0.63</v>
       </c>
       <c r="E180" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F180" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4031,18 +3489,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>913</v>
+        <v>85</v>
       </c>
       <c r="C181" t="n">
-        <v>85</v>
+        <v>458</v>
       </c>
       <c r="D181" t="n">
-        <v>458</v>
+        <v>2.46</v>
       </c>
       <c r="E181" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="F181" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4051,18 +3506,15 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>915</v>
+        <v>87.5</v>
       </c>
       <c r="C182" t="n">
-        <v>87.5</v>
+        <v>458</v>
       </c>
       <c r="D182" t="n">
-        <v>458</v>
+        <v>2.76</v>
       </c>
       <c r="E182" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4071,18 +3523,15 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>917</v>
+        <v>92.5</v>
       </c>
       <c r="C183" t="n">
-        <v>92.5</v>
+        <v>458</v>
       </c>
       <c r="D183" t="n">
-        <v>458</v>
+        <v>3.53</v>
       </c>
       <c r="E183" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="F183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4091,18 +3540,15 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>922</v>
+        <v>105</v>
       </c>
       <c r="C184" t="n">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="D184" t="n">
-        <v>458</v>
+        <v>6.25</v>
       </c>
       <c r="E184" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="F184" t="n">
         <v>183</v>
       </c>
     </row>
@@ -4111,18 +3557,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>925</v>
+        <v>112.5</v>
       </c>
       <c r="C185" t="n">
-        <v>112.5</v>
+        <v>458</v>
       </c>
       <c r="D185" t="n">
-        <v>458</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F185" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4131,18 +3574,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>927</v>
+        <v>117.5</v>
       </c>
       <c r="C186" t="n">
-        <v>117.5</v>
+        <v>458</v>
       </c>
       <c r="D186" t="n">
-        <v>458</v>
+        <v>10.5</v>
       </c>
       <c r="E186" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,18 +3591,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>932</v>
+        <v>135</v>
       </c>
       <c r="C187" t="n">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="D187" t="n">
-        <v>458</v>
+        <v>19.19</v>
       </c>
       <c r="E187" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="F187" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4171,18 +3608,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>933</v>
+        <v>140</v>
       </c>
       <c r="C188" t="n">
-        <v>140</v>
+        <v>458</v>
       </c>
       <c r="D188" t="n">
-        <v>458</v>
+        <v>22.55</v>
       </c>
       <c r="E188" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="F188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4191,18 +3625,15 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>939</v>
+        <v>170</v>
       </c>
       <c r="C189" t="n">
-        <v>170</v>
+        <v>458</v>
       </c>
       <c r="D189" t="n">
-        <v>458</v>
+        <v>44.9</v>
       </c>
       <c r="E189" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4211,18 +3642,15 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>944</v>
+        <v>195</v>
       </c>
       <c r="C190" t="n">
-        <v>195</v>
+        <v>458</v>
       </c>
       <c r="D190" t="n">
-        <v>458</v>
+        <v>67.45</v>
       </c>
       <c r="E190" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="F190" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4231,18 +3659,15 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1017</v>
+        <v>150</v>
       </c>
       <c r="C191" t="n">
-        <v>150</v>
+        <v>584</v>
       </c>
       <c r="D191" t="n">
-        <v>584</v>
+        <v>31.2</v>
       </c>
       <c r="E191" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F191" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4251,18 +3676,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1018</v>
+        <v>155</v>
       </c>
       <c r="C192" t="n">
-        <v>155</v>
+        <v>584</v>
       </c>
       <c r="D192" t="n">
-        <v>584</v>
+        <v>34.85</v>
       </c>
       <c r="E192" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="F192" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4271,18 +3693,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1021</v>
+        <v>170</v>
       </c>
       <c r="C193" t="n">
-        <v>170</v>
+        <v>584</v>
       </c>
       <c r="D193" t="n">
-        <v>584</v>
+        <v>46.68</v>
       </c>
       <c r="E193" t="n">
-        <v>46.68</v>
-      </c>
-      <c r="F193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4291,18 +3710,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1039</v>
+        <v>95</v>
       </c>
       <c r="C194" t="n">
-        <v>95</v>
+        <v>640</v>
       </c>
       <c r="D194" t="n">
-        <v>640</v>
+        <v>5.63</v>
       </c>
       <c r="E194" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F194" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4311,18 +3727,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1041</v>
+        <v>105</v>
       </c>
       <c r="C195" t="n">
-        <v>105</v>
+        <v>640</v>
       </c>
       <c r="D195" t="n">
-        <v>640</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F195" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4331,18 +3744,15 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1042</v>
+        <v>110</v>
       </c>
       <c r="C196" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="D196" t="n">
-        <v>640</v>
+        <v>10.05</v>
       </c>
       <c r="E196" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="F196" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4351,18 +3761,15 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1043</v>
+        <v>115</v>
       </c>
       <c r="C197" t="n">
-        <v>115</v>
+        <v>640</v>
       </c>
       <c r="D197" t="n">
-        <v>640</v>
+        <v>12.26</v>
       </c>
       <c r="E197" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F197" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4371,18 +3778,15 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1044</v>
+        <v>120</v>
       </c>
       <c r="C198" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="D198" t="n">
-        <v>640</v>
+        <v>14.45</v>
       </c>
       <c r="E198" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="F198" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4391,18 +3795,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1045</v>
+        <v>125</v>
       </c>
       <c r="C199" t="n">
-        <v>125</v>
+        <v>640</v>
       </c>
       <c r="D199" t="n">
-        <v>640</v>
+        <v>16.87</v>
       </c>
       <c r="E199" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="F199" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4411,18 +3812,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1047</v>
+        <v>135</v>
       </c>
       <c r="C200" t="n">
-        <v>135</v>
+        <v>640</v>
       </c>
       <c r="D200" t="n">
-        <v>640</v>
+        <v>22.35</v>
       </c>
       <c r="E200" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="F200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,18 +3829,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1048</v>
+        <v>140</v>
       </c>
       <c r="C201" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="D201" t="n">
-        <v>640</v>
+        <v>25.5</v>
       </c>
       <c r="E201" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4451,18 +3846,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1068</v>
+        <v>80</v>
       </c>
       <c r="C202" t="n">
-        <v>80</v>
+        <v>731</v>
       </c>
       <c r="D202" t="n">
-        <v>731</v>
+        <v>3.32</v>
       </c>
       <c r="E202" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4471,18 +3863,15 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1069</v>
+        <v>85</v>
       </c>
       <c r="C203" t="n">
-        <v>85</v>
+        <v>731</v>
       </c>
       <c r="D203" t="n">
-        <v>731</v>
+        <v>4.25</v>
       </c>
       <c r="E203" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +3880,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1070</v>
+        <v>90</v>
       </c>
       <c r="C204" t="n">
-        <v>90</v>
+        <v>731</v>
       </c>
       <c r="D204" t="n">
-        <v>731</v>
+        <v>5.2</v>
       </c>
       <c r="E204" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F204" t="n">
         <v>83</v>
       </c>
     </row>
@@ -4511,18 +3897,15 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1071</v>
+        <v>95</v>
       </c>
       <c r="C205" t="n">
-        <v>95</v>
+        <v>731</v>
       </c>
       <c r="D205" t="n">
-        <v>731</v>
+        <v>6.43</v>
       </c>
       <c r="E205" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="F205" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4531,18 +3914,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1073</v>
+        <v>105</v>
       </c>
       <c r="C206" t="n">
-        <v>105</v>
+        <v>731</v>
       </c>
       <c r="D206" t="n">
-        <v>731</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4551,18 +3931,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1075</v>
+        <v>115</v>
       </c>
       <c r="C207" t="n">
-        <v>115</v>
+        <v>731</v>
       </c>
       <c r="D207" t="n">
-        <v>731</v>
+        <v>13.5</v>
       </c>
       <c r="E207" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F207" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4571,18 +3948,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1076</v>
+        <v>120</v>
       </c>
       <c r="C208" t="n">
-        <v>120</v>
+        <v>731</v>
       </c>
       <c r="D208" t="n">
-        <v>731</v>
+        <v>15.76</v>
       </c>
       <c r="E208" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="F208" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4591,18 +3965,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1077</v>
+        <v>125</v>
       </c>
       <c r="C209" t="n">
-        <v>125</v>
+        <v>731</v>
       </c>
       <c r="D209" t="n">
-        <v>731</v>
+        <v>18.6</v>
       </c>
       <c r="E209" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F209" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4611,18 +3982,15 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1078</v>
+        <v>130</v>
       </c>
       <c r="C210" t="n">
-        <v>130</v>
+        <v>731</v>
       </c>
       <c r="D210" t="n">
-        <v>731</v>
+        <v>21.2</v>
       </c>
       <c r="E210" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F210" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4631,18 +3999,15 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1081</v>
+        <v>145</v>
       </c>
       <c r="C211" t="n">
-        <v>145</v>
+        <v>731</v>
       </c>
       <c r="D211" t="n">
-        <v>731</v>
+        <v>30.2</v>
       </c>
       <c r="E211" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F211" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4651,18 +4016,15 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1091</v>
+        <v>195</v>
       </c>
       <c r="C212" t="n">
-        <v>195</v>
+        <v>731</v>
       </c>
       <c r="D212" t="n">
-        <v>731</v>
+        <v>70</v>
       </c>
       <c r="E212" t="n">
-        <v>70</v>
-      </c>
-      <c r="F212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4671,18 +4033,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1092</v>
+        <v>200</v>
       </c>
       <c r="C213" t="n">
-        <v>200</v>
+        <v>731</v>
       </c>
       <c r="D213" t="n">
-        <v>731</v>
+        <v>75.13</v>
       </c>
       <c r="E213" t="n">
-        <v>75.13</v>
-      </c>
-      <c r="F213" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4691,18 +4050,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1096</v>
+        <v>240</v>
       </c>
       <c r="C214" t="n">
-        <v>240</v>
+        <v>731</v>
       </c>
       <c r="D214" t="n">
-        <v>731</v>
+        <v>112.05</v>
       </c>
       <c r="E214" t="n">
-        <v>112.05</v>
-      </c>
-      <c r="F214" t="n">
         <v>1</v>
       </c>
     </row>
